--- a/Python_Mail/Tasks/Python3/Task 4 - Strip and append/sheet.xlsx
+++ b/Python_Mail/Tasks/Python3/Task 4 - Strip and append/sheet.xlsx
@@ -445,6 +445,11 @@
       <c r="D1" s="1" t="n">
         <v>44432</v>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>VM Name</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/Python_Mail/Tasks/Python3/Task 4 - Strip and append/sheet.xlsx
+++ b/Python_Mail/Tasks/Python3/Task 4 - Strip and append/sheet.xlsx
@@ -14,84 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>VM Domain</t>
   </si>
   <si>
-    <t>VM Name</t>
-  </si>
-  <si>
     <t>VM1.xyz</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>VM1</t>
-  </si>
-  <si>
     <t>VM2.xyz</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>VM2</t>
-  </si>
-  <si>
     <t>VM3.xyz</t>
   </si>
   <si>
-    <t>VM3</t>
-  </si>
-  <si>
     <t>VM4.xyz</t>
   </si>
   <si>
-    <t>VM4</t>
-  </si>
-  <si>
     <t>VM5.xyz</t>
   </si>
   <si>
-    <t>VM5</t>
-  </si>
-  <si>
     <t>VM6.xyz</t>
   </si>
   <si>
-    <t>VM6</t>
-  </si>
-  <si>
     <t>VM7.xyz</t>
   </si>
   <si>
-    <t>VM7</t>
-  </si>
-  <si>
     <t>VM8.xyz</t>
   </si>
   <si>
-    <t>VM8</t>
-  </si>
-  <si>
     <t>VM9.xyz</t>
   </si>
   <si>
-    <t>VM9</t>
-  </si>
-  <si>
     <t>VM10.xyz</t>
   </si>
   <si>
-    <t>VM10</t>
-  </si>
-  <si>
     <t>VM11.xyz</t>
-  </si>
-  <si>
-    <t>VM11</t>
   </si>
 </sst>
 </file>
@@ -431,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +407,9 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,186 +422,150 @@
       <c r="D1" s="1">
         <v>44432</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
